--- a/rhla_analysis/rhla1_6_zipf_result/k8.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k8.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4671641191538414</v>
+        <v>0.4671641191538405</v>
       </c>
       <c r="B2" t="n">
         <v>59.96063180233759</v>
@@ -466,12 +466,12 @@
         <v>0.1615750169721656</v>
       </c>
       <c r="D2" t="n">
-        <v>128.3502506805152</v>
+        <v>128.3502506805154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6796667902215933</v>
+        <v>0.6796667902215926</v>
       </c>
       <c r="B3" t="n">
         <v>36.12609574413908</v>
@@ -480,12 +480,12 @@
         <v>0.1659877800407332</v>
       </c>
       <c r="D3" t="n">
-        <v>53.15265695468335</v>
+        <v>53.1526569546834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5772420379890252</v>
+        <v>0.5772420379890228</v>
       </c>
       <c r="B4" t="n">
         <v>60.09088312062057</v>
@@ -494,12 +494,12 @@
         <v>0.1799049558723693</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0999774201529</v>
+        <v>104.0999774201533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6167687988691667</v>
+        <v>0.6167687988691605</v>
       </c>
       <c r="B5" t="n">
         <v>98.15297556250522</v>
@@ -508,26 +508,26 @@
         <v>0.176510522742702</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1406305611872</v>
+        <v>159.1406305611888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4660423036979205</v>
+        <v>0.4660423036979204</v>
       </c>
       <c r="B6" t="n">
-        <v>45.02965266002332</v>
+        <v>45.02965266002331</v>
       </c>
       <c r="C6" t="n">
         <v>0.1710794297352342</v>
       </c>
       <c r="D6" t="n">
-        <v>96.6213845883198</v>
+        <v>96.62138458831981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5309403528854896</v>
+        <v>0.5309403528854898</v>
       </c>
       <c r="B7" t="n">
         <v>65.27366599627764</v>
@@ -536,12 +536,12 @@
         <v>0.1673455532926001</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9397344570559</v>
+        <v>122.9397344570558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1283801974917898</v>
+        <v>0.1283801974917905</v>
       </c>
       <c r="B8" t="n">
         <v>17.30255864352146</v>
@@ -550,12 +550,12 @@
         <v>0.1710794297352342</v>
       </c>
       <c r="D8" t="n">
-        <v>134.7759154571172</v>
+        <v>134.7759154571164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1728880913972549</v>
+        <v>0.1728880913972539</v>
       </c>
       <c r="B9" t="n">
         <v>39.92691658103139</v>
@@ -564,26 +564,26 @@
         <v>0.1826205023761032</v>
       </c>
       <c r="D9" t="n">
-        <v>230.9408141321256</v>
+        <v>230.9408141321269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.381864161516223</v>
+        <v>0.3818641615162269</v>
       </c>
       <c r="B10" t="n">
-        <v>27.53506733246912</v>
+        <v>27.53506733246913</v>
       </c>
       <c r="C10" t="n">
         <v>0.1653088934147997</v>
       </c>
       <c r="D10" t="n">
-        <v>72.10696919852043</v>
+        <v>72.10696919851971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7138613020702392</v>
+        <v>0.7138613020702426</v>
       </c>
       <c r="B11" t="n">
         <v>35.95632026141369</v>
@@ -592,7 +592,7 @@
         <v>0.1720977596741344</v>
       </c>
       <c r="D11" t="n">
-        <v>50.36877633951899</v>
+        <v>50.36877633951876</v>
       </c>
     </row>
   </sheetData>
